--- a/resources/assets/2016.xlsx
+++ b/resources/assets/2016.xlsx
@@ -74,6 +74,9 @@
       <style:table-row-properties style:row-height="23.24pt" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro9" style:family="table-row">
+      <style:table-row-properties style:row-height="43.09pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro10" style:family="table-row">
       <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
@@ -109,106 +112,126 @@
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#3c3c3c" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="6.40000009536743pt" fo:language="none" fo:country="none" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Ubuntu" style:font-size-asian="6.40000009536743pt" style:language-asian="none" style:country-asian="none" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Ubuntu" style:font-size-complex="6.40000009536743pt" style:language-complex="none" style:country-complex="none" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Normal_20_2">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Normal_20_2">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Normal_20_2">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="1.76pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#002060" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="1.76pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="1.76pt solid #000000" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="1.76pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="1.76pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="1.76pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Normal_20_2">
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Normal_20_2">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ff66cc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="1.76pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
@@ -219,12 +242,12 @@
       <table:calculation-settings table:automatic-find-labels="false"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="ce2"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce7"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce8"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="ce2"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="ce2"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="ce2"/>
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce14"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce22"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce16"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce26"/>
         <table:table-column table:style-name="co7" table:number-columns-repeated="1017" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
@@ -245,7 +268,7 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>BATCH</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce25" office:value-type="string" calcext:value-type="string">
             <text:p>Instructors (Sections)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -299,7 +322,7 @@
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
             <text:p>2016</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
             <text:p>Mr. Abdul Aziz(A,B,C), Mr. Faizan Yousuf(D,E)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -323,7 +346,7 @@
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
             <text:p>2016</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce28" office:value-type="string" calcext:value-type="string">
             <text:p>
               Mr. Nadeem Kafi(A,C,F), Mr. Mehwish Amjad (B,D), 
               <text:s text:c="26"/>
@@ -351,7 +374,7 @@
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
             <text:p>2016</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce25" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string">
             <text:p>
               Mr. Zain ul Hassan (A,C), Ms. Sehrish Saeed(B,D,F), 
               <text:s text:c="30"/>
@@ -364,7 +387,7 @@
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>CS211</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Discrete Structures</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
@@ -373,7 +396,7 @@
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce18" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
@@ -392,7 +415,7 @@
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>MT104</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Linear Algebra</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
@@ -401,13 +424,13 @@
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce18" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
             <text:p>2016</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce26" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string" calcext:value-type="string">
             <text:p>Dr. Fahad Riaz(A,C,E), Dr. Faqiha Sultan (B,G,H), Mr. Jamil Usmani (D,F)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -416,22 +439,22 @@
           <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>SS118</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>Psychology</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce14" office:value-type="string" calcext:value-type="string">
             <text:p>Psych</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce4" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="2016" calcext:value-type="float">
-            <text:p>2016</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="float" office:value="2016" calcext:value-type="float">
+            <text:p>2016</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
             <text:p>Course Planning: Gr1= (A, B,C,D) , Gr2= (E,F,G,H)  </text:p>
             <text:p>Ms. Sumaira Khanzada (Gr1,Gr2)</text:p>
           </table:table-cell>
@@ -441,22 +464,22 @@
           <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
             <text:p>SS223</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
             <text:p>Bussiness Communication-I</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
             <text:p>Bcomm-I</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce5" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce20" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce20" office:value-type="float" office:value="2016" calcext:value-type="float">
-            <text:p>2016</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="float" office:value="2016" calcext:value-type="float">
+            <text:p>2016</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
             <text:p>Course Planning: Gr1= (A,B,C,D), Gr2= (E,F,G,H) </text:p>
             <text:p>Ms. Sameera Sultan(Gr1,Gr2)</text:p>
           </table:table-cell>
@@ -466,7 +489,7 @@
           <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CL103</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>
               Computer Programming 
               <text:s/>
@@ -482,10 +505,10 @@
           <table:table-cell table:style-name="ce4" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="float" office:value="2016" calcext:value-type="float">
-            <text:p>2016</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="float" office:value="2016" calcext:value-type="float">
+            <text:p>2016</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
             <text:p>Course Planning: A= (A,G,H), B= (B,C), C=(D,E,F)</text:p>
             <text:p>Ms. Mahrukh Khan(C2), Mr. Basit Ali(A2),                                     Ms. Rahemeen(A1,B1,C1),Mr. Faizan Yousuf(B2)                                                                            </text:p>
           </table:table-cell>
@@ -495,10 +518,10 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>EE227</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
             <text:p>Digital Logic Design</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
             <text:p>DLD</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
@@ -523,10 +546,10 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>EL227</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
             <text:p>Digital Logic Design Lab</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
             <text:p>DLD-Lab</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="1" calcext:value-type="float">
@@ -548,7 +571,7 @@
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>MT115</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Calculus-II</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
@@ -557,7 +580,7 @@
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce18" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
@@ -573,22 +596,22 @@
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>SS122</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>English Composition</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>Eng Comp.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="1" calcext:value-type="float">
+          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce18" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2016" calcext:value-type="float">
             <text:p>2016</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
             <text:p>
               Course Planning: Gr1= (A, B, C, D,E,F,G,H) 
               <text:s text:c="68"/>
@@ -601,24 +624,49 @@
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>CS103</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>Computer Programming </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CP</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="2" calcext:value-type="float">
+          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="2016" calcext:value-type="float">
-            <text:p>2016</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="2016" calcext:value-type="float">
+            <text:p>2016</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
             <text:p>Course Planning: A= (A,G,H), B= (B,C), C=(D,E,F)</text:p>
             <text:p>Mr. Abdul Aziz (A,B,C)                                                                               </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>MG220</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>Marketing Management</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>MM</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="float" office:value="3" calcext:value-type="float">
+            <text:p>3</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="3" calcext:value-type="float">
+            <text:p>3</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce24" office:value-type="float" office:value="2016" calcext:value-type="float">
+            <text:p>2016</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
+            <text:p>Course Planning: Gr1= (A,B,C), Gr2= (D,E,F), Gr3=(G,H) </text:p>
+            <text:p>Ms. Asiya Zaheer (Gr1,Gr2,Gr3)</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
@@ -633,11 +681,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2017-11-05T14:59:17.331088408</meta:creation-date>
-    <dc:date>2017-11-05T20:35:48.816221760</dc:date>
-    <meta:editing-duration>PT1H11M31S</meta:editing-duration>
-    <meta:editing-cycles>18</meta:editing-cycles>
+    <dc:date>2017-11-07T16:56:14.881966328</dc:date>
+    <meta:editing-duration>PT1H12M52S</meta:editing-duration>
+    <meta:editing-cycles>19</meta:editing-cycles>
     <meta:generator>LibreOffice/5.1.6.2$Linux_X86_64 LibreOffice_project/10m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="105" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="112" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -649,14 +697,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">34528</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">17626</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">19147</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">12</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -733,7 +781,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">jAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">jAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
     </config:config-item-set>
@@ -1022,6 +1070,192 @@
       <style:map style:condition="value()&gt;0" style:apply-style-name="N10155P0"/>
       <style:map style:condition="value()&lt;0" style:apply-style-name="N10155P1"/>
       <style:map style:condition="value()=0" style:apply-style-name="N10155P2"/>
+    </number:text-style>
+    <number:currency-style style:name="N10156P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10156" number:language="en" number:country="US">
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10156P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10157P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10157" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10157P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10158P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10158" number:language="en" number:country="US">
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10158P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10159P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10159" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10159P0"/>
+    </number:currency-style>
+    <number:number-style style:name="N10160P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10160" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10160P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10161P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10161" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10161P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10162P0" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10162P1" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N10162P2" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N10162" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10162P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10162P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10162P2"/>
+    </number:text-style>
+    <number:currency-style style:name="N10163P0" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10163P1" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10163P2" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>- </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N10163" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10163P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10163P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10163P2"/>
+    </number:text-style>
+    <number:number-style style:name="N10164P0" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10164P1" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N10164P2" style:volatile="true" number:language="en" number:country="US">
+      <loext:text> </loext:text>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:text-style style:name="N10164" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10164P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10164P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10164P2"/>
+    </number:text-style>
+    <number:currency-style style:name="N10165P0" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10165P1" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10165P2" style:volatile="true" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:currency-symbol/>
+      <loext:fill-character> </loext:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N10165" number:language="en" number:country="US">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10165P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10165P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10165P2"/>
     </number:text-style>
     <style:style style:name="Default" style:family="table-cell">
       <style:text-properties style:font-name-asian="Noto Sans CJK SC Regular" style:font-family-asian="'Noto Sans CJK SC Regular'" style:font-family-generic-asian="system" style:font-pitch-asian="variable" style:font-name-complex="FreeSans" style:font-family-complex="FreeSans" style:font-family-generic-complex="system" style:font-pitch-complex="variable"/>
@@ -1096,9 +1330,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-11-05">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-11-07">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="20:35:33.585357985">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="16:54:53.280357220">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
